--- a/data/trans_orig/P1406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B20FFE0-1199-4ABD-AF5D-15A15E531DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC38E19-6C85-4EC1-84F0-77FE0F6943F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B594230F-CAC6-4862-9E8B-827B5A45949E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AC4705D-BB9D-4E36-B177-ADC3E88DC5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="228">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,68%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -109,7 +109,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,7 +118,7 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>95,54%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,92%</t>
+    <t>94,32%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -157,7 +157,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -166,22 +166,22 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -190,7 +190,7 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,41%</t>
   </si>
   <si>
     <t>99,45%</t>
@@ -199,10 +199,10 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -226,429 +226,459 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -665,12 +695,6 @@
   </si>
   <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1109,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B7807C-A3F3-4CD2-B35F-74C69889EB6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E74E0D2-FCC4-4DC6-81C0-FEB69682D6A6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1905,10 +1929,10 @@
         <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1917,13 +1941,13 @@
         <v>8330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1932,13 +1956,13 @@
         <v>19950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1977,13 @@
         <v>746003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>698</v>
@@ -1968,13 +1992,13 @@
         <v>768844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -1983,13 +2007,13 @@
         <v>1514847</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2069,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2063,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2078,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2108,13 +2132,13 @@
         <v>11096</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2123,13 +2147,13 @@
         <v>13102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2138,13 +2162,13 @@
         <v>24198</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2183,13 @@
         <v>936643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>991</v>
@@ -2174,13 +2198,13 @@
         <v>1038799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1891</v>
@@ -2189,13 +2213,13 @@
         <v>1975442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2284,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2299,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2338,13 @@
         <v>40572</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -2329,13 +2353,13 @@
         <v>43119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2344,13 +2368,13 @@
         <v>83691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2389,13 @@
         <v>3386207</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>3256</v>
@@ -2380,13 +2404,13 @@
         <v>3510797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>6427</v>
@@ -2395,13 +2419,13 @@
         <v>6897003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2481,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00CDA44-106E-41AC-BCE1-B65ED16DA7A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C60421-B0AE-4C6E-9066-AD8191E54DFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2495,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2623,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2659,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2674,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2707,7 +2731,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -2722,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -2844,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2883,13 @@
         <v>3928</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2874,13 +2898,13 @@
         <v>5956</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2889,13 +2913,13 @@
         <v>9884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2934,13 @@
         <v>554326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>545</v>
@@ -2925,13 +2949,13 @@
         <v>553523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2940,13 +2964,13 @@
         <v>1107849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3089,13 @@
         <v>6371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3080,13 +3104,13 @@
         <v>10177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3095,13 +3119,13 @@
         <v>16548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3140,13 @@
         <v>1016060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>968</v>
@@ -3131,13 +3155,13 @@
         <v>1032736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>1914</v>
@@ -3146,13 +3170,13 @@
         <v>2048796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3256,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3295,13 @@
         <v>1997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3286,13 +3310,13 @@
         <v>7930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3301,13 +3325,13 @@
         <v>9927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,10 +3346,10 @@
         <v>757555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -3337,13 +3361,13 @@
         <v>777081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="M18" s="7">
         <v>1423</v>
@@ -3352,13 +3376,13 @@
         <v>1534636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3438,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3432,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3477,13 +3501,13 @@
         <v>2953</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3492,13 +3516,13 @@
         <v>10204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3507,13 +3531,13 @@
         <v>13157</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3552,13 @@
         <v>934614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>950</v>
@@ -3543,13 +3567,13 @@
         <v>1033575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>1879</v>
@@ -3558,10 +3582,10 @@
         <v>1968189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>32</v>
@@ -3638,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3653,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3668,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3707,13 @@
         <v>15249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3698,13 +3722,13 @@
         <v>34266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -3713,13 +3737,13 @@
         <v>49515</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3758,13 @@
         <v>3379101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7">
         <v>3307</v>
@@ -3749,13 +3773,13 @@
         <v>3510276</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>6524</v>
@@ -3764,13 +3788,13 @@
         <v>6889377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3850,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482C602-5AB1-4F68-A311-11543DEDD70F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F633C994-C844-4686-86A6-7645B7C45EB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3974,7 +3998,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -3989,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
@@ -4004,7 +4028,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4028,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4043,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4058,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4094,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4109,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4204,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4195,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
@@ -4210,7 +4234,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4234,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4249,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4264,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4300,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4315,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4410,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4401,7 +4425,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4416,7 +4440,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4455,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4470,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4521,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4616,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -4607,7 +4631,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -4622,7 +4646,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>33</v>
@@ -4661,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4676,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4727,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +4807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4798,7 +4822,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>33</v>
@@ -4813,7 +4837,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -4828,7 +4852,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -4852,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4867,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4882,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4918,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4933,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,7 +5028,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5019,7 +5043,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>33</v>
@@ -5028,13 +5052,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5058,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5073,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5088,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5124,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5139,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5205,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -5195,7 +5219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC38E19-6C85-4EC1-84F0-77FE0F6943F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F015752-EF14-446E-A305-8B4ED225DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AC4705D-BB9D-4E36-B177-ADC3E88DC5F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C4F01C8-F569-4363-842A-169933A0D1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="225">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,13 +94,13 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -109,7 +109,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,7 +118,7 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>95,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,32%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>96,38%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -142,7 +142,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -157,544 +157,535 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1133,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E74E0D2-FCC4-4DC6-81C0-FEB69682D6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26A5FCB-0892-4D10-A51B-27C61979A3AE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1520,7 +1511,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1529,13 +1520,13 @@
         <v>7546</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1544,13 +1535,13 @@
         <v>10744</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,13 +1556,13 @@
         <v>584507</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>544</v>
@@ -1580,13 +1571,13 @@
         <v>577599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>1093</v>
@@ -1595,13 +1586,13 @@
         <v>1162105</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1648,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1675,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1690,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1705,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1711,13 @@
         <v>12994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1735,13 +1726,13 @@
         <v>13002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1750,13 +1741,13 @@
         <v>25996</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1762,13 @@
         <v>1004953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>925</v>
@@ -1786,13 +1777,13 @@
         <v>1014789</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1849</v>
@@ -1801,13 +1792,13 @@
         <v>2019742</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,7 +1854,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1881,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1896,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1911,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1917,13 @@
         <v>11620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1941,13 +1932,13 @@
         <v>8330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1956,13 +1947,13 @@
         <v>19950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1968,13 @@
         <v>746003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>698</v>
@@ -1992,13 +1983,13 @@
         <v>768844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -2007,13 +1998,13 @@
         <v>1514847</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2060,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2087,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2102,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2117,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2123,13 @@
         <v>11096</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2147,13 +2138,13 @@
         <v>13102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2162,13 +2153,13 @@
         <v>24198</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2174,13 @@
         <v>936643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>991</v>
@@ -2198,13 +2189,13 @@
         <v>1038799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>1891</v>
@@ -2213,13 +2204,13 @@
         <v>1975442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2308,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2323,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2329,13 @@
         <v>40572</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -2353,13 +2344,13 @@
         <v>43119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2368,13 +2359,13 @@
         <v>83691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2380,13 @@
         <v>3386207</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>3256</v>
@@ -2404,13 +2395,13 @@
         <v>3510797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>6427</v>
@@ -2419,13 +2410,13 @@
         <v>6897003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2472,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C60421-B0AE-4C6E-9066-AD8191E54DFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D302EA-027E-4391-821D-2809E3E71550}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +2510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2632,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2647,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2662,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2698,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2713,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -2746,7 +2737,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -2761,7 +2752,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -2868,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2874,13 @@
         <v>3928</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2898,13 +2889,13 @@
         <v>5956</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2913,13 +2904,13 @@
         <v>9884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2925,13 @@
         <v>554326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>545</v>
@@ -2949,13 +2940,13 @@
         <v>553523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2964,13 +2955,13 @@
         <v>1107849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3017,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3044,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3059,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3074,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3080,13 @@
         <v>6371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3104,13 +3095,13 @@
         <v>10177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3119,13 +3110,13 @@
         <v>16548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3131,13 @@
         <v>1016060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>968</v>
@@ -3155,13 +3146,13 @@
         <v>1032736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>1914</v>
@@ -3170,13 +3161,13 @@
         <v>2048796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3223,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3250,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3265,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3280,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3286,13 @@
         <v>1997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3310,13 +3301,13 @@
         <v>7930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3325,13 +3316,13 @@
         <v>9927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,10 +3337,10 @@
         <v>757555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -3361,13 +3352,13 @@
         <v>777081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>1423</v>
@@ -3376,13 +3367,13 @@
         <v>1534636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3429,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3456,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3471,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3486,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3492,13 @@
         <v>2953</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3516,13 +3507,13 @@
         <v>10204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3531,13 +3522,13 @@
         <v>13157</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3543,13 @@
         <v>934614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>950</v>
@@ -3567,13 +3558,13 @@
         <v>1033575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>1879</v>
@@ -3582,13 +3573,13 @@
         <v>1968189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3677,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3692,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3698,13 @@
         <v>15249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3722,13 +3713,13 @@
         <v>34266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -3737,13 +3728,13 @@
         <v>49515</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3749,13 @@
         <v>3379101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>3307</v>
@@ -3773,13 +3764,13 @@
         <v>3510276</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>6524</v>
@@ -3788,10 +3779,10 @@
         <v>6889377</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>204</v>
@@ -3850,7 +3841,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F633C994-C844-4686-86A6-7645B7C45EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BE206E-7D28-46FE-8CD2-3D82DA5A15D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +3989,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -4013,7 +4004,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
@@ -4028,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4052,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4067,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4082,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4118,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4133,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4219,7 +4210,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
@@ -4234,7 +4225,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4258,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4273,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4288,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4324,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4339,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,7 +4386,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4410,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4425,7 +4416,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4440,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4464,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4479,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4494,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4530,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4545,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4616,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -4631,7 +4622,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -4646,7 +4637,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>33</v>
@@ -4670,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4685,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4700,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4736,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4751,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4798,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4822,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>33</v>
@@ -4837,7 +4828,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -4852,7 +4843,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -4876,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4891,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4906,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4942,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4957,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5019,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5043,7 +5034,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>33</v>
@@ -5058,7 +5049,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5082,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5097,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5112,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5148,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5163,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5210,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799C0EA4-D646-42D5-9810-0F9892606AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E619B36E-C263-4161-9FBC-F1DB96AA8A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EB4FB7B-93B2-4E7C-A810-E8749ED727AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D28DD0BF-6F44-4E71-91D3-ED47935F4A18}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="162">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,453 +66,399 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>98,99%</t>
   </si>
   <si>
@@ -525,15 +471,9 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>1,83%</t>
   </si>
   <si>
@@ -543,12 +483,6 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
@@ -564,9 +498,6 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
     <t>1,35%</t>
   </si>
   <si>
@@ -580,9 +511,6 @@
   </si>
   <si>
     <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -1006,8 +934,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E08655-CD06-4583-A4EE-C14935A8A28C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0498666-D6A5-4E82-9DDE-5089D53AA333}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1124,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1664</v>
+        <v>4862</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1139,34 +1067,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1140</v>
+        <v>8686</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>2804</v>
+        <v>13547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,10 +1103,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7">
-        <v>114101</v>
+        <v>698607</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1190,10 +1118,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>642</v>
       </c>
       <c r="I5" s="7">
-        <v>110765</v>
+        <v>688364</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1202,19 +1130,19 @@
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1311</v>
       </c>
       <c r="N5" s="7">
-        <v>224866</v>
+        <v>1386972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>27</v>
@@ -1226,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1241,10 +1169,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1256,10 +1184,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1279,10 +1207,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>3197</v>
+        <v>12994</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1294,10 +1222,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>7546</v>
+        <v>13002</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1309,19 +1237,19 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>10744</v>
+        <v>25996</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,49 +1258,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>549</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>584507</v>
+        <v>1004953</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>925</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1014789</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7">
-        <v>544</v>
-      </c>
-      <c r="I8" s="7">
-        <v>577599</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1849</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2019742</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="7">
-        <v>1093</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1162105</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1396,10 +1324,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1411,10 +1339,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1428,55 +1356,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12994</v>
+        <v>11620</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8330</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13002</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>25996</v>
+        <v>19950</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1485,49 +1413,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>1004953</v>
+        <v>746003</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
+        <v>698</v>
+      </c>
+      <c r="I11" s="7">
+        <v>768844</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>925</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1014789</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="M11" s="7">
-        <v>1849</v>
+        <v>1376</v>
       </c>
       <c r="N11" s="7">
-        <v>2019742</v>
+        <v>1514847</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1551,10 +1479,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1566,10 +1494,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1583,55 +1511,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>11620</v>
+        <v>11096</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13102</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8330</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>22</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24198</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>19950</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,49 +1568,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>678</v>
+        <v>900</v>
       </c>
       <c r="D14" s="7">
-        <v>746003</v>
+        <v>936643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>991</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1038799</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="7">
-        <v>698</v>
-      </c>
-      <c r="I14" s="7">
-        <v>768844</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1891</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1975442</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="7">
-        <v>1376</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1514847</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -1706,10 +1634,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1721,10 +1649,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -1738,55 +1666,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>11096</v>
+        <v>40572</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43119</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13102</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>77</v>
+      </c>
+      <c r="N16" s="7">
+        <v>83691</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M16" s="7">
-        <v>22</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24198</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,49 +1723,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>900</v>
+        <v>3171</v>
       </c>
       <c r="D17" s="7">
-        <v>936643</v>
+        <v>3386207</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3256</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3510797</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="7">
-        <v>991</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1038799</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6427</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6897003</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1975442</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -1861,10 +1789,10 @@
         <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -1876,10 +1804,10 @@
         <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -1892,171 +1820,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40572</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>39</v>
-      </c>
-      <c r="I19" s="7">
-        <v>43119</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="7">
-        <v>77</v>
-      </c>
-      <c r="N19" s="7">
-        <v>83691</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3171</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3386207</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3256</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3510797</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6427</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6897003</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2069,8 +1841,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7E883A-D83C-4942-8EC0-C3514264333C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8301EFC1-B573-4D50-9142-5C1601502538}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2086,7 +1858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2187,49 +1959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5956</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2010,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>648</v>
+      </c>
+      <c r="D5" s="7">
+        <v>670872</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="7">
+        <v>660</v>
+      </c>
+      <c r="I5" s="7">
+        <v>666883</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1308</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1337755</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="7">
-        <v>116546</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7">
-        <v>115</v>
-      </c>
-      <c r="I5" s="7">
-        <v>113360</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="7">
-        <v>228</v>
-      </c>
-      <c r="N5" s="7">
-        <v>229906</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2304,10 +2076,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2319,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -2342,49 +2114,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3928</v>
+        <v>6371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5956</v>
+        <v>10177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>9884</v>
+        <v>16548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,49 +2165,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>946</v>
       </c>
       <c r="D8" s="7">
-        <v>554326</v>
+        <v>1016060</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="7">
+        <v>968</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1032736</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1914</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2048796</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="7">
-        <v>545</v>
-      </c>
-      <c r="I8" s="7">
-        <v>553523</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1080</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1107849</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,10 +2216,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -2459,10 +2231,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -2474,10 +2246,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -2491,55 +2263,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>6371</v>
+        <v>1997</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7930</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9927</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10177</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="7">
-        <v>14</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16548</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2320,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>946</v>
+        <v>694</v>
       </c>
       <c r="D11" s="7">
-        <v>1016060</v>
+        <v>757555</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="7">
+        <v>729</v>
+      </c>
+      <c r="I11" s="7">
+        <v>777081</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1423</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1534636</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="7">
-        <v>968</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1032736</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1914</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2048796</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,10 +2371,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -2614,10 +2386,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -2629,10 +2401,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -2646,55 +2418,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1997</v>
+        <v>2953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10204</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7930</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
       <c r="N13" s="7">
-        <v>9927</v>
+        <v>13157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,49 +2475,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>694</v>
+        <v>929</v>
       </c>
       <c r="D14" s="7">
-        <v>757555</v>
+        <v>934614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>729</v>
+        <v>950</v>
       </c>
       <c r="I14" s="7">
-        <v>777081</v>
+        <v>1033575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
-        <v>1423</v>
+        <v>1879</v>
       </c>
       <c r="N14" s="7">
-        <v>1534636</v>
+        <v>1968189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -2769,10 +2541,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2784,10 +2556,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -2801,55 +2573,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>2953</v>
+        <v>15249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>10204</v>
+        <v>34266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>13157</v>
+        <v>49515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,49 +2630,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>929</v>
+        <v>3217</v>
       </c>
       <c r="D17" s="7">
-        <v>934614</v>
+        <v>3379101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
-        <v>950</v>
+        <v>3307</v>
       </c>
       <c r="I17" s="7">
-        <v>1033575</v>
+        <v>3510276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
-        <v>1879</v>
+        <v>6524</v>
       </c>
       <c r="N17" s="7">
-        <v>1968189</v>
+        <v>6889377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -2924,10 +2696,10 @@
         <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -2939,10 +2711,10 @@
         <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -2955,171 +2727,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15249</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34266</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="7">
-        <v>45</v>
-      </c>
-      <c r="N19" s="7">
-        <v>49515</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3217</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3379101</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3307</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3510276</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6524</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6889377</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
